--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H2">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I2">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J2">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N2">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q2">
-        <v>6.080571200930747</v>
+        <v>8.563298429598889</v>
       </c>
       <c r="R2">
-        <v>6.080571200930747</v>
+        <v>77.06968586639002</v>
       </c>
       <c r="S2">
-        <v>0.02027982651872952</v>
+        <v>0.02557502895390367</v>
       </c>
       <c r="T2">
-        <v>0.02027982651872952</v>
+        <v>0.02557502895390367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H3">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I3">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J3">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N3">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q3">
-        <v>38.29599626736984</v>
+        <v>50.69630386371</v>
       </c>
       <c r="R3">
-        <v>38.29599626736984</v>
+        <v>456.26673477339</v>
       </c>
       <c r="S3">
-        <v>0.1277242112624706</v>
+        <v>0.151408881732855</v>
       </c>
       <c r="T3">
-        <v>0.1277242112624706</v>
+        <v>0.151408881732855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H4">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I4">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J4">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N4">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q4">
-        <v>47.71366326240784</v>
+        <v>61.08060178203444</v>
       </c>
       <c r="R4">
-        <v>47.71366326240784</v>
+        <v>549.72541603831</v>
       </c>
       <c r="S4">
-        <v>0.1591338677831115</v>
+        <v>0.1824224826379853</v>
       </c>
       <c r="T4">
-        <v>0.1591338677831115</v>
+        <v>0.1824224826379854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H5">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I5">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J5">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N5">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q5">
-        <v>13.71695652446925</v>
+        <v>15.26292889591634</v>
       </c>
       <c r="R5">
-        <v>13.71695652446925</v>
+        <v>137.366360063247</v>
       </c>
       <c r="S5">
-        <v>0.045748580106851</v>
+        <v>0.04558405287910974</v>
       </c>
       <c r="T5">
-        <v>0.045748580106851</v>
+        <v>0.04558405287910974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H6">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I6">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J6">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N6">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q6">
-        <v>86.3906528683261</v>
+        <v>90.35935014048302</v>
       </c>
       <c r="R6">
-        <v>86.3906528683261</v>
+        <v>813.2341512643471</v>
       </c>
       <c r="S6">
-        <v>0.2881287621040045</v>
+        <v>0.2698659885670968</v>
       </c>
       <c r="T6">
-        <v>0.2881287621040045</v>
+        <v>0.2698659885670969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H7">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I7">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J7">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N7">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q7">
-        <v>107.6356518107103</v>
+        <v>108.8679659576737</v>
       </c>
       <c r="R7">
-        <v>107.6356518107103</v>
+        <v>979.811693619063</v>
       </c>
       <c r="S7">
-        <v>0.3589847522248329</v>
+        <v>0.3251435652290494</v>
       </c>
       <c r="T7">
-        <v>0.3589847522248329</v>
+        <v>0.3251435652290494</v>
       </c>
     </row>
   </sheetData>
